--- a/Excel All/GOAES.xlsx
+++ b/Excel All/GOAES.xlsx
@@ -1,33 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/512f0b414f2a6f27/Data Analytics U3/SAT/Excel All/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D1B1663B-8413-4C2F-85E6-33AB22A2D90D}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_F25DC773A252ABDACC1048D6A91B4A5E5ADE58E9" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{35B32BDB-A776-4A54-985B-E642E86A040E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Participants" sheetId="5" r:id="rId1"/>
     <sheet name="Coffee Drinkers" sheetId="4" r:id="rId2"/>
     <sheet name="Non Coffee Drinkers" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3790" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3792" uniqueCount="76">
   <si>
     <t>Likely</t>
   </si>
@@ -244,12 +252,24 @@
   <si>
     <t>AGE</t>
   </si>
+  <si>
+    <t xml:space="preserve">                     zsxazxxxxxxasb htrgdfwqdx</t>
+  </si>
+  <si>
+    <t>C2 6N543L/P;</t>
+  </si>
+  <si>
+    <t>225 Females</t>
+  </si>
+  <si>
+    <t>96 Yes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,8 +284,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -283,8 +313,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="0"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -318,22 +354,61 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_Participants" xfId="2" xr:uid="{ED3B3B26-0FA8-4F0B-88AF-1454661ED436}"/>
   </cellStyles>
   <dxfs count="14">
     <dxf>
@@ -391,9 +466,1863 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3C5C-496B-8452-7E02FD3E1890}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>Participants!$C$1:$C$363</c:f>
+              <c:strCache>
+                <c:ptCount val="363"/>
+                <c:pt idx="0">
+                  <c:v>Sex</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>C2 6N543L/P;</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>Prefer not to say</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="309">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="310">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="311">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="312">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="313">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="314">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="315">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="316">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="317">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="318">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="319">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="320">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="321">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="322">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="323">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="324">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="325">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="326">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="327">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="328">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="329">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="330">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="331">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="332">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="333">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="334">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="335">
+                  <c:v>Non-binary</c:v>
+                </c:pt>
+                <c:pt idx="336">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="337">
+                  <c:v>Prefer not to say</c:v>
+                </c:pt>
+                <c:pt idx="338">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="339">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="340">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="341">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="342">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="343">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="344">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="345">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="346">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="347">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="348">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="349">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="350">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="351">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="352">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="353">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="354">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="355">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="356">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="357">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="358">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="359">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="360">
+                  <c:v>Male</c:v>
+                </c:pt>
+                <c:pt idx="361">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="362">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Participants!$C$364</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5BBC-40CC-B194-4F147B3059F8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr rtl="0">
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>341779</xdr:colOff>
+      <xdr:row>345</xdr:row>
+      <xdr:rowOff>68355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>72838</xdr:colOff>
+      <xdr:row>359</xdr:row>
+      <xdr:rowOff>144555</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E2AA1E9-537C-49FD-AA41-F87D32D0CAA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{5C29FC7C-AE0D-45DC-9D3C-B6C0E581ACC2}" name="Table15" displayName="Table15" ref="A1:D1048576" totalsRowShown="0">
   <autoFilter ref="A1:D1048576" xr:uid="{255137C8-0BCD-4330-826A-283A013FADDC}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D364">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{47644464-74B8-492C-B36E-F6BB515E5E38}" name="ID"/>
     <tableColumn id="2" xr3:uid="{ED144DA2-41E4-4FBA-BE12-D6FD5956F8CA}" name="AGE"/>
@@ -431,13 +2360,13 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20C7BD56-66DD-4EB3-82AB-2BFA7F93EBB4}" name="Table1" displayName="Table1" ref="A1:D1048410" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{20C7BD56-66DD-4EB3-82AB-2BFA7F93EBB4}" name="Table1" displayName="Table1" ref="A1:D1048410" totalsRowShown="0">
   <autoFilter ref="A1:D1048410" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A5135D9B-1156-49F5-9C13-C677F0936331}" name="ID" dataCellStyle="Normal"/>
-    <tableColumn id="25" xr3:uid="{7FF54CA5-FC3D-467A-A14B-FA90DEC7F1B9}" name="Reason to dislike coffee?" dataCellStyle="Normal"/>
-    <tableColumn id="26" xr3:uid="{9E88A5E0-8994-4D4B-BC14-F21BB4D8B644}" name="Aware of the risks of coffee?" dataCellStyle="Normal"/>
-    <tableColumn id="27" xr3:uid="{087D820C-8B0C-4004-A2AC-A8FA73CEC402}" name="Do people drink too much coffee" dataCellStyle="Normal"/>
+    <tableColumn id="1" xr3:uid="{A5135D9B-1156-49F5-9C13-C677F0936331}" name="ID"/>
+    <tableColumn id="25" xr3:uid="{7FF54CA5-FC3D-467A-A14B-FA90DEC7F1B9}" name="Reason to dislike coffee?"/>
+    <tableColumn id="26" xr3:uid="{9E88A5E0-8994-4D4B-BC14-F21BB4D8B644}" name="Aware of the risks of coffee?"/>
+    <tableColumn id="27" xr3:uid="{087D820C-8B0C-4004-A2AC-A8FA73CEC402}" name="Do people drink too much coffee"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -706,10 +2635,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC398624-6150-4C7C-9852-B4072C916146}">
-  <dimension ref="A1:D364"/>
+  <dimension ref="A1:U364"/>
   <sheetViews>
-    <sheetView topLeftCell="A340" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -942,7 +2871,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -956,7 +2885,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -970,7 +2899,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -984,7 +2913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -997,8 +2926,9 @@
       <c r="D20" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U20" s="7"/>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1011,8 +2941,9 @@
       <c r="D21" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U21" s="8"/>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1025,8 +2956,9 @@
       <c r="D22" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U22" s="8"/>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1039,8 +2971,9 @@
       <c r="D23" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U23" s="8"/>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1053,8 +2986,9 @@
       <c r="D24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U24" s="8"/>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1067,8 +3001,9 @@
       <c r="D25" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U25" s="8"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1081,8 +3016,9 @@
       <c r="D26" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U26" s="8"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1095,8 +3031,9 @@
       <c r="D27" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U27" s="8"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1109,8 +3046,9 @@
       <c r="D28" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U28" s="8"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1123,8 +3061,9 @@
       <c r="D29" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U29" s="8"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1137,8 +3076,9 @@
       <c r="D30" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U30" s="8"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1151,8 +3091,9 @@
       <c r="D31" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U31" s="8"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1165,8 +3106,9 @@
       <c r="D32" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U32" s="8"/>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1179,8 +3121,9 @@
       <c r="D33" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U33" s="8"/>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1193,8 +3136,9 @@
       <c r="D34" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U34" s="8"/>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1207,8 +3151,9 @@
       <c r="D35" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U35" s="8"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1221,22 +3166,24 @@
       <c r="D36" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U36" s="8"/>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C37" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D37" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U37" s="8"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1249,22 +3196,24 @@
       <c r="D38" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U38" s="8"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C39" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D39" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U39" s="8"/>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1277,22 +3226,24 @@
       <c r="D40" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U40" s="8"/>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C41" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D41" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U41" s="8"/>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1305,50 +3256,54 @@
       <c r="D42" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U42" s="8"/>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C43" t="s">
+      <c r="C43" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D43" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U43" s="8"/>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C44" t="s">
+      <c r="C44" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D44" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U44" s="8"/>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C45" t="s">
+      <c r="C45" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D45" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U45" s="8"/>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1361,22 +3316,24 @@
       <c r="D46" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U46" s="8"/>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C47" t="s">
+      <c r="C47" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D47" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U47" s="8"/>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1389,8 +3346,9 @@
       <c r="D48" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U48" s="8"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1403,36 +3361,39 @@
       <c r="D49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U49" s="8"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C50" t="s">
+      <c r="C50" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D50" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U50" s="8"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C51" t="s">
+      <c r="C51" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D51" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U51" s="8"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1445,78 +3406,84 @@
       <c r="D52" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U52" s="8"/>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C53" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D53" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U53" s="8"/>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C54" t="s">
+      <c r="C54" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D54" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U54" s="8"/>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C55" t="s">
+      <c r="C55" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D55" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U55" s="8"/>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C56" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D56" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U56" s="8"/>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C57" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D57" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U57" s="8"/>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1529,8 +3496,9 @@
       <c r="D58" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U58" s="8"/>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1543,22 +3511,24 @@
       <c r="D59" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U59" s="8"/>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C60" t="s">
+      <c r="C60" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D60" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U60" s="8"/>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -1571,8 +3541,9 @@
       <c r="D61" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U61" s="8"/>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1585,50 +3556,54 @@
       <c r="D62" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U62" s="8"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C63" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D63" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U63" s="8"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C64" t="s">
+      <c r="C64" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D64" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U64" s="8"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C65" t="s">
+      <c r="C65" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D65" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U65" s="8"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -1641,8 +3616,9 @@
       <c r="D66" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U66" s="8"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1655,36 +3631,39 @@
       <c r="D67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U67" s="8"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C68" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D68" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U68" s="8"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C69" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U69" s="8"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1697,8 +3676,9 @@
       <c r="D70" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U70" s="8"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -1711,64 +3691,69 @@
       <c r="D71" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U71" s="8"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C72" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D72" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U72" s="8"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C73" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D73" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U73" s="8"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C74" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D74" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U74" s="8"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" t="s">
-        <v>61</v>
+        <v>72</v>
+      </c>
+      <c r="C75" s="6" t="s">
+        <v>73</v>
       </c>
       <c r="D75" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U75" s="8"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -1781,8 +3766,9 @@
       <c r="D76" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U76" s="8"/>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1795,36 +3781,38 @@
       <c r="D77" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U77" s="8"/>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C78" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D78" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="U78" s="8"/>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C79" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D79" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1845,7 +3833,7 @@
       <c r="B81" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C81" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D81" t="s">
@@ -1887,7 +3875,7 @@
       <c r="B84" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D84" t="s">
@@ -1915,7 +3903,7 @@
       <c r="B86" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C86" t="s">
+      <c r="C86" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D86" t="s">
@@ -1929,7 +3917,7 @@
       <c r="B87" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C87" t="s">
+      <c r="C87" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D87" t="s">
@@ -1943,7 +3931,7 @@
       <c r="B88" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C88" t="s">
+      <c r="C88" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D88" t="s">
@@ -1957,7 +3945,7 @@
       <c r="B89" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C89" t="s">
+      <c r="C89" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D89" t="s">
@@ -1971,7 +3959,7 @@
       <c r="B90" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C90" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D90" t="s">
@@ -1985,7 +3973,7 @@
       <c r="B91" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C91" t="s">
+      <c r="C91" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D91" t="s">
@@ -2027,7 +4015,7 @@
       <c r="B94" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C94" t="s">
+      <c r="C94" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D94" t="s">
@@ -2041,7 +4029,7 @@
       <c r="B95" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D95" t="s">
@@ -2069,7 +4057,7 @@
       <c r="B97" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C97" t="s">
+      <c r="C97" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D97" t="s">
@@ -2097,7 +4085,7 @@
       <c r="B99" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C99" t="s">
+      <c r="C99" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D99" t="s">
@@ -2153,7 +4141,7 @@
       <c r="B103" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C103" t="s">
+      <c r="C103" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D103" t="s">
@@ -2181,7 +4169,7 @@
       <c r="B105" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C105" t="s">
+      <c r="C105" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D105" t="s">
@@ -2209,7 +4197,7 @@
       <c r="B107" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C107" t="s">
+      <c r="C107" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D107" t="s">
@@ -2223,7 +4211,7 @@
       <c r="B108" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C108" t="s">
+      <c r="C108" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D108" t="s">
@@ -2265,7 +4253,7 @@
       <c r="B111" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C111" t="s">
+      <c r="C111" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D111" t="s">
@@ -2279,7 +4267,7 @@
       <c r="B112" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C112" t="s">
+      <c r="C112" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D112" t="s">
@@ -2293,7 +4281,7 @@
       <c r="B113" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C113" t="s">
+      <c r="C113" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D113" t="s">
@@ -2321,7 +4309,7 @@
       <c r="B115" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C115" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D115" t="s">
@@ -2335,7 +4323,7 @@
       <c r="B116" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C116" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D116" t="s">
@@ -2349,7 +4337,7 @@
       <c r="B117" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D117" t="s">
@@ -2391,7 +4379,7 @@
       <c r="B120" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C120" t="s">
+      <c r="C120" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D120" t="s">
@@ -2405,7 +4393,7 @@
       <c r="B121" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C121" t="s">
+      <c r="C121" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D121" t="s">
@@ -2433,7 +4421,7 @@
       <c r="B123" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C123" t="s">
+      <c r="C123" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D123" t="s">
@@ -2447,7 +4435,7 @@
       <c r="B124" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C124" t="s">
+      <c r="C124" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D124" t="s">
@@ -2489,7 +4477,7 @@
       <c r="B127" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D127" t="s">
@@ -2503,84 +4491,84 @@
       <c r="B128" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C128" t="s">
+      <c r="C128" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D128" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C129" t="s">
+      <c r="C129" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D129" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C130" t="s">
+      <c r="C130" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D130" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C131" t="s">
+      <c r="C131" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D131" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C132" t="s">
+      <c r="C132" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D132" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>132</v>
       </c>
       <c r="B133" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C133" t="s">
+      <c r="C133" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D133" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>133</v>
       </c>
@@ -2594,21 +4582,24 @@
         <v>68</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>134</v>
       </c>
       <c r="B135" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C135" t="s">
+      <c r="C135" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D135" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K135" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>135</v>
       </c>
@@ -2621,50 +4612,53 @@
       <c r="D136" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="K136" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>136</v>
       </c>
       <c r="B137" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C137" t="s">
+      <c r="C137" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D137" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D138" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>138</v>
       </c>
       <c r="B139" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C139" t="s">
+      <c r="C139" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D139" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>139</v>
       </c>
@@ -2678,49 +4672,49 @@
         <v>68</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>140</v>
       </c>
       <c r="B141" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C141" t="s">
+      <c r="C141" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D141" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C142" t="s">
+      <c r="C142" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D142" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>142</v>
       </c>
       <c r="B143" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C143" t="s">
+      <c r="C143" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D143" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>143</v>
       </c>
@@ -2755,7 +4749,7 @@
       <c r="B146" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C146" t="s">
+      <c r="C146" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D146" t="s">
@@ -2769,7 +4763,7 @@
       <c r="B147" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C147" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D147" t="s">
@@ -2783,7 +4777,7 @@
       <c r="B148" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C148" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D148" t="s">
@@ -2839,7 +4833,7 @@
       <c r="B152" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C152" t="s">
+      <c r="C152" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D152" t="s">
@@ -2853,7 +4847,7 @@
       <c r="B153" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C153" t="s">
+      <c r="C153" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D153" t="s">
@@ -2867,7 +4861,7 @@
       <c r="B154" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C154" t="s">
+      <c r="C154" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D154" t="s">
@@ -2895,7 +4889,7 @@
       <c r="B156" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C156" t="s">
+      <c r="C156" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D156" t="s">
@@ -2909,7 +4903,7 @@
       <c r="B157" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D157" t="s">
@@ -2951,7 +4945,7 @@
       <c r="B160" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C160" t="s">
+      <c r="C160" s="6" t="s">
         <v>61</v>
       </c>
       <c r="D160" t="s">
@@ -5816,8 +7810,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5826,8 +7821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11D99C0B-B789-4177-B763-ED86E4CC4A59}">
   <dimension ref="A1:N160"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048365"/>
+    <sheetView topLeftCell="E91" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12908,8 +14903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57FF03D1-A727-4997-9922-7AAA53B375CA}">
   <dimension ref="A1:D205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B197" sqref="B197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
